--- a/Excel pro program.xlsx
+++ b/Excel pro program.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programování\Chytré nástroje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E8624E-96FD-43FE-97BF-1F002F312C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5070DD1-D8AC-45A5-A1BF-F7D06D4270C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B91DDEB3-73B7-415D-A1F4-216134C04092}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,9 +61,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Příjmení jméno (bakaláři)</t>
-  </si>
-  <si>
-    <t>BĚLOVÁ Barbora</t>
   </si>
   <si>
     <t>BĚLOHLAV František</t>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Nikodémová Eliška</t>
+  </si>
+  <si>
+    <t>NOVÁK Jakub</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B7CCF7-ACEA-4FD6-84C7-D13328CCAD0A}">
   <sheetPr codeName="List1"/>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,12 +566,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -581,48 +581,48 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3:C3">IFERROR(_xlfn.TEXTSPLIT(A3," "," "),"Nejsou hodnoty")</f>
-        <v>BĚLOVÁ</v>
+        <v>NOVÁK</v>
       </c>
       <c r="C3" t="str">
-        <v>Barbora</v>
+        <v>Jakub</v>
       </c>
       <c r="D3" t="str">
         <f>IF(C3="","Nejsou hodnoty", C3)</f>
-        <v>Barbora</v>
+        <v>Jakub</v>
       </c>
       <c r="E3" t="str">
         <f>IF(B3="Nejsou hodnoty", B3, PROPER(B3))</f>
-        <v>Bělová</v>
+        <v>Novák</v>
       </c>
       <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">IF(A3="","Nejsou hodnoty",RemoveDiacritics((LOWER(E3))&amp;RemoveDiacritics(LOWER(D3))))</f>
-        <v>belovabarbora</v>
+        <f t="array" ref="F3">IF(A4="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E3))&amp;OdstranitDiakritiku(LOWER(D3)))</f>
+        <v>novakjakub</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4:C4">IFERROR(_xlfn.TEXTSPLIT(A4," "," "),"Nejsou hodnoty")</f>
@@ -640,13 +640,13 @@
         <v>Bělohlav</v>
       </c>
       <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">IF(A4="","Nejsou hodnoty",RemoveDiacritics((LOWER(E4))&amp;RemoveDiacritics(LOWER(D4))))</f>
+        <f t="array" ref="F4">IF(A4="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E4))&amp;OdstranitDiakritiku(LOWER(D4)))</f>
         <v>belohlavfrantisek</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5:C5">IFERROR(_xlfn.TEXTSPLIT(A5," "," "),"Nejsou hodnoty")</f>
@@ -664,13 +664,13 @@
         <v>Česká</v>
       </c>
       <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">IF(A5="","Nejsou hodnoty",RemoveDiacritics((LOWER(E5))&amp;RemoveDiacritics(LOWER(D5))))</f>
+        <f t="array" ref="F5">IF(A5="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E5))&amp;OdstranitDiakritiku(LOWER(D5)))</f>
         <v>ceskaadriana</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:C6">IFERROR(_xlfn.TEXTSPLIT(A6," "," "),"Nejsou hodnoty")</f>
@@ -688,13 +688,13 @@
         <v>Dušek</v>
       </c>
       <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">IF(A6="","Nejsou hodnoty",RemoveDiacritics((LOWER(E6))&amp;RemoveDiacritics(LOWER(D6))))</f>
+        <f t="array" ref="F6">IF(A6="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E6))&amp;OdstranitDiakritiku(LOWER(D6)))</f>
         <v>dusekpetr</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7:C7">IFERROR(_xlfn.TEXTSPLIT(A7," "," "),"Nejsou hodnoty")</f>
@@ -712,13 +712,13 @@
         <v>Hadrava</v>
       </c>
       <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">IF(A7="","Nejsou hodnoty",RemoveDiacritics((LOWER(E7))&amp;RemoveDiacritics(LOWER(D7))))</f>
+        <f t="array" ref="F7">IF(A7="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E7))&amp;OdstranitDiakritiku(LOWER(D7)))</f>
         <v>hadravajan</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8:C8">IFERROR(_xlfn.TEXTSPLIT(A8," "," "),"Nejsou hodnoty")</f>
@@ -736,13 +736,13 @@
         <v>Holický</v>
       </c>
       <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">IF(A8="","Nejsou hodnoty",RemoveDiacritics((LOWER(E8))&amp;RemoveDiacritics(LOWER(D8))))</f>
-        <v>holickyjachym</v>
+        <f t="array" ref="F8">IF(A8="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E8))&amp;OdstranitDiakritiku(LOWER(D8)))</f>
+        <v>holickujachym</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9:C9">IFERROR(_xlfn.TEXTSPLIT(A9," "," "),"Nejsou hodnoty")</f>
@@ -760,13 +760,13 @@
         <v>Hojdekr</v>
       </c>
       <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">IF(A9="","Nejsou hodnoty",RemoveDiacritics((LOWER(E9))&amp;RemoveDiacritics(LOWER(D9))))</f>
+        <f t="array" ref="F9">IF(A9="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E9))&amp;OdstranitDiakritiku(LOWER(D9)))</f>
         <v>hojdekrtomas</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10:C10">IFERROR(_xlfn.TEXTSPLIT(A10," "," "),"Nejsou hodnoty")</f>
@@ -784,13 +784,13 @@
         <v>Houba</v>
       </c>
       <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">IF(A10="","Nejsou hodnoty",RemoveDiacritics((LOWER(E10))&amp;RemoveDiacritics(LOWER(D10))))</f>
+        <f t="array" ref="F10">IF(A10="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E10))&amp;OdstranitDiakritiku(LOWER(D10)))</f>
         <v>houbajan</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11:C11">IFERROR(_xlfn.TEXTSPLIT(A11," "," "),"Nejsou hodnoty")</f>
@@ -808,13 +808,13 @@
         <v>Korytar</v>
       </c>
       <c r="F11" t="str" cm="1">
-        <f t="array" ref="F11">IF(A11="","Nejsou hodnoty",RemoveDiacritics((LOWER(E11))&amp;RemoveDiacritics(LOWER(D11))))</f>
+        <f t="array" ref="F11">IF(A11="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E11))&amp;OdstranitDiakritiku(LOWER(D11)))</f>
         <v>korytarkristian</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12:C12">IFERROR(_xlfn.TEXTSPLIT(A12," "," "),"Nejsou hodnoty")</f>
@@ -832,13 +832,13 @@
         <v>Kutlák</v>
       </c>
       <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">IF(A12="","Nejsou hodnoty",RemoveDiacritics((LOWER(E12))&amp;RemoveDiacritics(LOWER(D12))))</f>
+        <f t="array" ref="F12">IF(A12="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E12))&amp;OdstranitDiakritiku(LOWER(D12)))</f>
         <v>kutlakdavid</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13:C13">IFERROR(_xlfn.TEXTSPLIT(A13," "," "),"Nejsou hodnoty")</f>
@@ -856,13 +856,13 @@
         <v>Mach</v>
       </c>
       <c r="F13" t="str" cm="1">
-        <f t="array" ref="F13">IF(A13="","Nejsou hodnoty",RemoveDiacritics((LOWER(E13))&amp;RemoveDiacritics(LOWER(D13))))</f>
+        <f t="array" ref="F13">IF(A13="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E13))&amp;OdstranitDiakritiku(LOWER(D13)))</f>
         <v>machmichal</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14:C14">IFERROR(_xlfn.TEXTSPLIT(A14," "," "),"Nejsou hodnoty")</f>
@@ -880,7 +880,7 @@
         <v>Nikodémová</v>
       </c>
       <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">IF(A14="","Nejsou hodnoty",RemoveDiacritics((LOWER(E14))&amp;RemoveDiacritics(LOWER(D14))))</f>
+        <f t="array" ref="F14">IF(A14="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E14))&amp;OdstranitDiakritiku(LOWER(D14)))</f>
         <v>nikodemovaeliska</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">IF(A15="","Nejsou hodnoty",RemoveDiacritics((LOWER(E15))&amp;RemoveDiacritics(LOWER(D15))))</f>
+        <f t="array" ref="F15">IF(A15="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E15))&amp;OdstranitDiakritiku(LOWER(D15)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">IF(A16="","Nejsou hodnoty",RemoveDiacritics((LOWER(E16))&amp;RemoveDiacritics(LOWER(D16))))</f>
+        <f t="array" ref="F16">IF(A16="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E16))&amp;OdstranitDiakritiku(LOWER(D16)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">IF(A17="","Nejsou hodnoty",RemoveDiacritics((LOWER(E17))&amp;RemoveDiacritics(LOWER(D17))))</f>
+        <f t="array" ref="F17">IF(A17="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E17))&amp;OdstranitDiakritiku(LOWER(D17)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">IF(A18="","Nejsou hodnoty",RemoveDiacritics((LOWER(E18))&amp;RemoveDiacritics(LOWER(D18))))</f>
+        <f t="array" ref="F18">IF(A18="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E18))&amp;OdstranitDiakritiku(LOWER(D18)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">IF(A19="","Nejsou hodnoty",RemoveDiacritics((LOWER(E19))&amp;RemoveDiacritics(LOWER(D19))))</f>
+        <f t="array" ref="F19">IF(A19="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E19))&amp;OdstranitDiakritiku(LOWER(D19)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -988,7 +988,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">IF(A20="","Nejsou hodnoty",RemoveDiacritics((LOWER(E20))&amp;RemoveDiacritics(LOWER(D20))))</f>
+        <f t="array" ref="F20">IF(A20="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E20))&amp;OdstranitDiakritiku(LOWER(D20)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">IF(A21="","Nejsou hodnoty",RemoveDiacritics((LOWER(E21))&amp;RemoveDiacritics(LOWER(D21))))</f>
+        <f t="array" ref="F21">IF(A21="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E21))&amp;OdstranitDiakritiku(LOWER(D21)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">IF(A22="","Nejsou hodnoty",RemoveDiacritics((LOWER(E22))&amp;RemoveDiacritics(LOWER(D22))))</f>
+        <f t="array" ref="F22">IF(A22="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E22))&amp;OdstranitDiakritiku(LOWER(D22)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">IF(A23="","Nejsou hodnoty",RemoveDiacritics((LOWER(E23))&amp;RemoveDiacritics(LOWER(D23))))</f>
+        <f t="array" ref="F23">IF(A23="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E23))&amp;OdstranitDiakritiku(LOWER(D23)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">IF(A24="","Nejsou hodnoty",RemoveDiacritics((LOWER(E24))&amp;RemoveDiacritics(LOWER(D24))))</f>
+        <f t="array" ref="F24">IF(A24="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E24))&amp;OdstranitDiakritiku(LOWER(D24)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">IF(A25="","Nejsou hodnoty",RemoveDiacritics((LOWER(E25))&amp;RemoveDiacritics(LOWER(D25))))</f>
+        <f t="array" ref="F25">IF(A25="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E25))&amp;OdstranitDiakritiku(LOWER(D25)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">IF(A26="","Nejsou hodnoty",RemoveDiacritics((LOWER(E26))&amp;RemoveDiacritics(LOWER(D26))))</f>
+        <f t="array" ref="F26">IF(A26="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E26))&amp;OdstranitDiakritiku(LOWER(D26)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">IF(A27="","Nejsou hodnoty",RemoveDiacritics((LOWER(E27))&amp;RemoveDiacritics(LOWER(D27))))</f>
+        <f t="array" ref="F27">IF(A27="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E27))&amp;OdstranitDiakritiku(LOWER(D27)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">IF(A28="","Nejsou hodnoty",RemoveDiacritics((LOWER(E28))&amp;RemoveDiacritics(LOWER(D28))))</f>
+        <f t="array" ref="F28">IF(A28="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E28))&amp;OdstranitDiakritiku(LOWER(D28)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">IF(A29="","Nejsou hodnoty",RemoveDiacritics((LOWER(E29))&amp;RemoveDiacritics(LOWER(D29))))</f>
+        <f t="array" ref="F29">IF(A29="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E29))&amp;OdstranitDiakritiku(LOWER(D29)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">IF(A30="","Nejsou hodnoty",RemoveDiacritics((LOWER(E30))&amp;RemoveDiacritics(LOWER(D30))))</f>
+        <f t="array" ref="F30">IF(A30="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E30))&amp;OdstranitDiakritiku(LOWER(D30)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">IF(A31="","Nejsou hodnoty",RemoveDiacritics((LOWER(E31))&amp;RemoveDiacritics(LOWER(D31))))</f>
+        <f t="array" ref="F31">IF(A31="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E31))&amp;OdstranitDiakritiku(LOWER(D31)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">IF(A32="","Nejsou hodnoty",RemoveDiacritics((LOWER(E32))&amp;RemoveDiacritics(LOWER(D32))))</f>
+        <f t="array" ref="F32">IF(A32="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E32))&amp;OdstranitDiakritiku(LOWER(D32)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">IF(A33="","Nejsou hodnoty",RemoveDiacritics((LOWER(E33))&amp;RemoveDiacritics(LOWER(D33))))</f>
+        <f t="array" ref="F33">IF(A33="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E33))&amp;OdstranitDiakritiku(LOWER(D33)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34">IF(A34="","Nejsou hodnoty",RemoveDiacritics((LOWER(E34))&amp;RemoveDiacritics(LOWER(D34))))</f>
+        <f t="array" ref="F34">IF(A34="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E34))&amp;OdstranitDiakritiku(LOWER(D34)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F35" t="str" cm="1">
-        <f t="array" ref="F35">IF(A35="","Nejsou hodnoty",RemoveDiacritics((LOWER(E35))&amp;RemoveDiacritics(LOWER(D35))))</f>
+        <f t="array" ref="F35">IF(A35="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E35))&amp;OdstranitDiakritiku(LOWER(D35)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F36" t="str" cm="1">
-        <f t="array" ref="F36">IF(A36="","Nejsou hodnoty",RemoveDiacritics((LOWER(E36))&amp;RemoveDiacritics(LOWER(D36))))</f>
+        <f t="array" ref="F36">IF(A36="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E36))&amp;OdstranitDiakritiku(LOWER(D36)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F37" t="str" cm="1">
-        <f t="array" ref="F37">IF(A37="","Nejsou hodnoty",RemoveDiacritics((LOWER(E37))&amp;RemoveDiacritics(LOWER(D37))))</f>
+        <f t="array" ref="F37">IF(A37="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E37))&amp;OdstranitDiakritiku(LOWER(D37)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F38" t="str" cm="1">
-        <f t="array" ref="F38">IF(A38="","Nejsou hodnoty",RemoveDiacritics((LOWER(E38))&amp;RemoveDiacritics(LOWER(D38))))</f>
+        <f t="array" ref="F38">IF(A38="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E38))&amp;OdstranitDiakritiku(LOWER(D38)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39">IF(A39="","Nejsou hodnoty",RemoveDiacritics((LOWER(E39))&amp;RemoveDiacritics(LOWER(D39))))</f>
+        <f t="array" ref="F39">IF(A39="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E39))&amp;OdstranitDiakritiku(LOWER(D39)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F40" t="str" cm="1">
-        <f t="array" ref="F40">IF(A40="","Nejsou hodnoty",RemoveDiacritics((LOWER(E40))&amp;RemoveDiacritics(LOWER(D40))))</f>
+        <f t="array" ref="F40">IF(A40="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E40))&amp;OdstranitDiakritiku(LOWER(D40)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F41" t="str" cm="1">
-        <f t="array" ref="F41">IF(A41="","Nejsou hodnoty",RemoveDiacritics((LOWER(E41))&amp;RemoveDiacritics(LOWER(D41))))</f>
+        <f t="array" ref="F41">IF(A41="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E41))&amp;OdstranitDiakritiku(LOWER(D41)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F42" t="str" cm="1">
-        <f t="array" ref="F42">IF(A42="","Nejsou hodnoty",RemoveDiacritics((LOWER(E42))&amp;RemoveDiacritics(LOWER(D42))))</f>
+        <f t="array" ref="F42">IF(A42="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E42))&amp;OdstranitDiakritiku(LOWER(D42)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F43" t="str" cm="1">
-        <f t="array" ref="F43">IF(A43="","Nejsou hodnoty",RemoveDiacritics((LOWER(E43))&amp;RemoveDiacritics(LOWER(D43))))</f>
+        <f t="array" ref="F43">IF(A43="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E43))&amp;OdstranitDiakritiku(LOWER(D43)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44">IF(A44="","Nejsou hodnoty",RemoveDiacritics((LOWER(E44))&amp;RemoveDiacritics(LOWER(D44))))</f>
+        <f t="array" ref="F44">IF(A44="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E44))&amp;OdstranitDiakritiku(LOWER(D44)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F45" t="str" cm="1">
-        <f t="array" ref="F45">IF(A45="","Nejsou hodnoty",RemoveDiacritics((LOWER(E45))&amp;RemoveDiacritics(LOWER(D45))))</f>
+        <f t="array" ref="F45">IF(A45="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E45))&amp;OdstranitDiakritiku(LOWER(D45)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46">IF(A46="","Nejsou hodnoty",RemoveDiacritics((LOWER(E46))&amp;RemoveDiacritics(LOWER(D46))))</f>
+        <f t="array" ref="F46">IF(A46="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E46))&amp;OdstranitDiakritiku(LOWER(D46)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F47" t="str" cm="1">
-        <f t="array" ref="F47">IF(A47="","Nejsou hodnoty",RemoveDiacritics((LOWER(E47))&amp;RemoveDiacritics(LOWER(D47))))</f>
+        <f t="array" ref="F47">IF(A47="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E47))&amp;OdstranitDiakritiku(LOWER(D47)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F48" t="str" cm="1">
-        <f t="array" ref="F48">IF(A48="","Nejsou hodnoty",RemoveDiacritics((LOWER(E48))&amp;RemoveDiacritics(LOWER(D48))))</f>
+        <f t="array" ref="F48">IF(A48="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E48))&amp;OdstranitDiakritiku(LOWER(D48)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F49" t="str" cm="1">
-        <f t="array" ref="F49">IF(A49="","Nejsou hodnoty",RemoveDiacritics((LOWER(E49))&amp;RemoveDiacritics(LOWER(D49))))</f>
+        <f t="array" ref="F49">IF(A49="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E49))&amp;OdstranitDiakritiku(LOWER(D49)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F50" t="str" cm="1">
-        <f t="array" ref="F50">IF(A50="","Nejsou hodnoty",RemoveDiacritics((LOWER(E50))&amp;RemoveDiacritics(LOWER(D50))))</f>
+        <f t="array" ref="F50">IF(A50="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E50))&amp;OdstranitDiakritiku(LOWER(D50)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F51" t="str" cm="1">
-        <f t="array" ref="F51">IF(A51="","Nejsou hodnoty",RemoveDiacritics((LOWER(E51))&amp;RemoveDiacritics(LOWER(D51))))</f>
+        <f t="array" ref="F51">IF(A51="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E51))&amp;OdstranitDiakritiku(LOWER(D51)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F52" t="str" cm="1">
-        <f t="array" ref="F52">IF(A52="","Nejsou hodnoty",RemoveDiacritics((LOWER(E52))&amp;RemoveDiacritics(LOWER(D52))))</f>
+        <f t="array" ref="F52">IF(A52="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E52))&amp;OdstranitDiakritiku(LOWER(D52)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F53" t="str" cm="1">
-        <f t="array" ref="F53">IF(A53="","Nejsou hodnoty",RemoveDiacritics((LOWER(E53))&amp;RemoveDiacritics(LOWER(D53))))</f>
+        <f t="array" ref="F53">IF(A53="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E53))&amp;OdstranitDiakritiku(LOWER(D53)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F54" t="str" cm="1">
-        <f t="array" ref="F54">IF(A54="","Nejsou hodnoty",RemoveDiacritics((LOWER(E54))&amp;RemoveDiacritics(LOWER(D54))))</f>
+        <f t="array" ref="F54">IF(A54="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E54))&amp;OdstranitDiakritiku(LOWER(D54)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F55" t="str" cm="1">
-        <f t="array" ref="F55">IF(A55="","Nejsou hodnoty",RemoveDiacritics((LOWER(E55))&amp;RemoveDiacritics(LOWER(D55))))</f>
+        <f t="array" ref="F55">IF(A55="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E55))&amp;OdstranitDiakritiku(LOWER(D55)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F56" t="str" cm="1">
-        <f t="array" ref="F56">IF(A56="","Nejsou hodnoty",RemoveDiacritics((LOWER(E56))&amp;RemoveDiacritics(LOWER(D56))))</f>
+        <f t="array" ref="F56">IF(A56="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E56))&amp;OdstranitDiakritiku(LOWER(D56)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F57" t="str" cm="1">
-        <f t="array" ref="F57">IF(A57="","Nejsou hodnoty",RemoveDiacritics((LOWER(E57))&amp;RemoveDiacritics(LOWER(D57))))</f>
+        <f t="array" ref="F57">IF(A57="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E57))&amp;OdstranitDiakritiku(LOWER(D57)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F58" t="str" cm="1">
-        <f t="array" ref="F58">IF(A58="","Nejsou hodnoty",RemoveDiacritics((LOWER(E58))&amp;RemoveDiacritics(LOWER(D58))))</f>
+        <f t="array" ref="F58">IF(A58="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E58))&amp;OdstranitDiakritiku(LOWER(D58)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F59" t="str" cm="1">
-        <f t="array" ref="F59">IF(A59="","Nejsou hodnoty",RemoveDiacritics((LOWER(E59))&amp;RemoveDiacritics(LOWER(D59))))</f>
+        <f t="array" ref="F59">IF(A59="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E59))&amp;OdstranitDiakritiku(LOWER(D59)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F60" t="str" cm="1">
-        <f t="array" ref="F60">IF(A60="","Nejsou hodnoty",RemoveDiacritics((LOWER(E60))&amp;RemoveDiacritics(LOWER(D60))))</f>
+        <f t="array" ref="F60">IF(A60="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E60))&amp;OdstranitDiakritiku(LOWER(D60)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F61" t="str" cm="1">
-        <f t="array" ref="F61">IF(A61="","Nejsou hodnoty",RemoveDiacritics((LOWER(E61))&amp;RemoveDiacritics(LOWER(D61))))</f>
+        <f t="array" ref="F61">IF(A61="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E61))&amp;OdstranitDiakritiku(LOWER(D61)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F62" t="str" cm="1">
-        <f t="array" ref="F62">IF(A62="","Nejsou hodnoty",RemoveDiacritics((LOWER(E62))&amp;RemoveDiacritics(LOWER(D62))))</f>
+        <f t="array" ref="F62">IF(A62="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E62))&amp;OdstranitDiakritiku(LOWER(D62)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63">IF(A63="","Nejsou hodnoty",RemoveDiacritics((LOWER(E63))&amp;RemoveDiacritics(LOWER(D63))))</f>
+        <f t="array" ref="F63">IF(A63="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E63))&amp;OdstranitDiakritiku(LOWER(D63)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F64" t="str" cm="1">
-        <f t="array" ref="F64">IF(A64="","Nejsou hodnoty",RemoveDiacritics((LOWER(E64))&amp;RemoveDiacritics(LOWER(D64))))</f>
+        <f t="array" ref="F64">IF(A64="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E64))&amp;OdstranitDiakritiku(LOWER(D64)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F65" t="str" cm="1">
-        <f t="array" ref="F65">IF(A65="","Nejsou hodnoty",RemoveDiacritics((LOWER(E65))&amp;RemoveDiacritics(LOWER(D65))))</f>
+        <f t="array" ref="F65">IF(A65="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E65))&amp;OdstranitDiakritiku(LOWER(D65)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F66" t="str" cm="1">
-        <f t="array" ref="F66">IF(A66="","Nejsou hodnoty",RemoveDiacritics((LOWER(E66))&amp;RemoveDiacritics(LOWER(D66))))</f>
+        <f t="array" ref="F66">IF(A66="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E66))&amp;OdstranitDiakritiku(LOWER(D66)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F67" t="str" cm="1">
-        <f t="array" ref="F67">IF(A67="","Nejsou hodnoty",RemoveDiacritics((LOWER(E67))&amp;RemoveDiacritics(LOWER(D67))))</f>
+        <f t="array" ref="F67">IF(A67="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E67))&amp;OdstranitDiakritiku(LOWER(D67)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F68" t="str" cm="1">
-        <f t="array" ref="F68">IF(A68="","Nejsou hodnoty",RemoveDiacritics((LOWER(E68))&amp;RemoveDiacritics(LOWER(D68))))</f>
+        <f t="array" ref="F68">IF(A68="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E68))&amp;OdstranitDiakritiku(LOWER(D68)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F69" t="str" cm="1">
-        <f t="array" ref="F69">IF(A69="","Nejsou hodnoty",RemoveDiacritics((LOWER(E69))&amp;RemoveDiacritics(LOWER(D69))))</f>
+        <f t="array" ref="F69">IF(A69="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E69))&amp;OdstranitDiakritiku(LOWER(D69)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70">IF(A70="","Nejsou hodnoty",RemoveDiacritics((LOWER(E70))&amp;RemoveDiacritics(LOWER(D70))))</f>
+        <f t="array" ref="F70">IF(A70="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E70))&amp;OdstranitDiakritiku(LOWER(D70)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F71" t="str" cm="1">
-        <f t="array" ref="F71">IF(A71="","Nejsou hodnoty",RemoveDiacritics((LOWER(E71))&amp;RemoveDiacritics(LOWER(D71))))</f>
+        <f t="array" ref="F71">IF(A71="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E71))&amp;OdstranitDiakritiku(LOWER(D71)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F72" t="str" cm="1">
-        <f t="array" ref="F72">IF(A72="","Nejsou hodnoty",RemoveDiacritics((LOWER(E72))&amp;RemoveDiacritics(LOWER(D72))))</f>
+        <f t="array" ref="F72">IF(A72="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E72))&amp;OdstranitDiakritiku(LOWER(D72)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F73" t="str" cm="1">
-        <f t="array" ref="F73">IF(A73="","Nejsou hodnoty",RemoveDiacritics((LOWER(E73))&amp;RemoveDiacritics(LOWER(D73))))</f>
+        <f t="array" ref="F73">IF(A73="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E73))&amp;OdstranitDiakritiku(LOWER(D73)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F74" t="str" cm="1">
-        <f t="array" ref="F74">IF(A74="","Nejsou hodnoty",RemoveDiacritics((LOWER(E74))&amp;RemoveDiacritics(LOWER(D74))))</f>
+        <f t="array" ref="F74">IF(A74="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E74))&amp;OdstranitDiakritiku(LOWER(D74)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F75" t="str" cm="1">
-        <f t="array" ref="F75">IF(A75="","Nejsou hodnoty",RemoveDiacritics((LOWER(E75))&amp;RemoveDiacritics(LOWER(D75))))</f>
+        <f t="array" ref="F75">IF(A75="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E75))&amp;OdstranitDiakritiku(LOWER(D75)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F76" t="str" cm="1">
-        <f t="array" ref="F76">IF(A76="","Nejsou hodnoty",RemoveDiacritics((LOWER(E76))&amp;RemoveDiacritics(LOWER(D76))))</f>
+        <f t="array" ref="F76">IF(A76="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E76))&amp;OdstranitDiakritiku(LOWER(D76)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F77" t="str" cm="1">
-        <f t="array" ref="F77">IF(A77="","Nejsou hodnoty",RemoveDiacritics((LOWER(E77))&amp;RemoveDiacritics(LOWER(D77))))</f>
+        <f t="array" ref="F77">IF(A77="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E77))&amp;OdstranitDiakritiku(LOWER(D77)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F78" t="str" cm="1">
-        <f t="array" ref="F78">IF(A78="","Nejsou hodnoty",RemoveDiacritics((LOWER(E78))&amp;RemoveDiacritics(LOWER(D78))))</f>
+        <f t="array" ref="F78">IF(A78="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E78))&amp;OdstranitDiakritiku(LOWER(D78)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79">IF(A79="","Nejsou hodnoty",RemoveDiacritics((LOWER(E79))&amp;RemoveDiacritics(LOWER(D79))))</f>
+        <f t="array" ref="F79">IF(A79="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E79))&amp;OdstranitDiakritiku(LOWER(D79)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F80" t="str" cm="1">
-        <f t="array" ref="F80">IF(A80="","Nejsou hodnoty",RemoveDiacritics((LOWER(E80))&amp;RemoveDiacritics(LOWER(D80))))</f>
+        <f t="array" ref="F80">IF(A80="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E80))&amp;OdstranitDiakritiku(LOWER(D80)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F81" t="str" cm="1">
-        <f t="array" ref="F81">IF(A81="","Nejsou hodnoty",RemoveDiacritics((LOWER(E81))&amp;RemoveDiacritics(LOWER(D81))))</f>
+        <f t="array" ref="F81">IF(A81="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E81))&amp;OdstranitDiakritiku(LOWER(D81)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F82" t="str" cm="1">
-        <f t="array" ref="F82">IF(A82="","Nejsou hodnoty",RemoveDiacritics((LOWER(E82))&amp;RemoveDiacritics(LOWER(D82))))</f>
+        <f t="array" ref="F82">IF(A82="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E82))&amp;OdstranitDiakritiku(LOWER(D82)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F83" t="str" cm="1">
-        <f t="array" ref="F83">IF(A83="","Nejsou hodnoty",RemoveDiacritics((LOWER(E83))&amp;RemoveDiacritics(LOWER(D83))))</f>
+        <f t="array" ref="F83">IF(A83="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E83))&amp;OdstranitDiakritiku(LOWER(D83)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F84" t="str" cm="1">
-        <f t="array" ref="F84">IF(A84="","Nejsou hodnoty",RemoveDiacritics((LOWER(E84))&amp;RemoveDiacritics(LOWER(D84))))</f>
+        <f t="array" ref="F84">IF(A84="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E84))&amp;OdstranitDiakritiku(LOWER(D84)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F85" t="str" cm="1">
-        <f t="array" ref="F85">IF(A85="","Nejsou hodnoty",RemoveDiacritics((LOWER(E85))&amp;RemoveDiacritics(LOWER(D85))))</f>
+        <f t="array" ref="F85">IF(A85="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E85))&amp;OdstranitDiakritiku(LOWER(D85)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F86" t="str" cm="1">
-        <f t="array" ref="F86">IF(A86="","Nejsou hodnoty",RemoveDiacritics((LOWER(E86))&amp;RemoveDiacritics(LOWER(D86))))</f>
+        <f t="array" ref="F86">IF(A86="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E86))&amp;OdstranitDiakritiku(LOWER(D86)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F87" t="str" cm="1">
-        <f t="array" ref="F87">IF(A87="","Nejsou hodnoty",RemoveDiacritics((LOWER(E87))&amp;RemoveDiacritics(LOWER(D87))))</f>
+        <f t="array" ref="F87">IF(A87="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E87))&amp;OdstranitDiakritiku(LOWER(D87)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F88" t="str" cm="1">
-        <f t="array" ref="F88">IF(A88="","Nejsou hodnoty",RemoveDiacritics((LOWER(E88))&amp;RemoveDiacritics(LOWER(D88))))</f>
+        <f t="array" ref="F88">IF(A88="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E88))&amp;OdstranitDiakritiku(LOWER(D88)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F89" t="str" cm="1">
-        <f t="array" ref="F89">IF(A89="","Nejsou hodnoty",RemoveDiacritics((LOWER(E89))&amp;RemoveDiacritics(LOWER(D89))))</f>
+        <f t="array" ref="F89">IF(A89="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E89))&amp;OdstranitDiakritiku(LOWER(D89)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F90" t="str" cm="1">
-        <f t="array" ref="F90">IF(A90="","Nejsou hodnoty",RemoveDiacritics((LOWER(E90))&amp;RemoveDiacritics(LOWER(D90))))</f>
+        <f t="array" ref="F90">IF(A90="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E90))&amp;OdstranitDiakritiku(LOWER(D90)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F91" t="str" cm="1">
-        <f t="array" ref="F91">IF(A91="","Nejsou hodnoty",RemoveDiacritics((LOWER(E91))&amp;RemoveDiacritics(LOWER(D91))))</f>
+        <f t="array" ref="F91">IF(A91="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E91))&amp;OdstranitDiakritiku(LOWER(D91)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F92" t="str" cm="1">
-        <f t="array" ref="F92">IF(A92="","Nejsou hodnoty",RemoveDiacritics((LOWER(E92))&amp;RemoveDiacritics(LOWER(D92))))</f>
+        <f t="array" ref="F92">IF(A92="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E92))&amp;OdstranitDiakritiku(LOWER(D92)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F93" t="str" cm="1">
-        <f t="array" ref="F93">IF(A93="","Nejsou hodnoty",RemoveDiacritics((LOWER(E93))&amp;RemoveDiacritics(LOWER(D93))))</f>
+        <f t="array" ref="F93">IF(A93="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E93))&amp;OdstranitDiakritiku(LOWER(D93)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F94" t="str" cm="1">
-        <f t="array" ref="F94">IF(A94="","Nejsou hodnoty",RemoveDiacritics((LOWER(E94))&amp;RemoveDiacritics(LOWER(D94))))</f>
+        <f t="array" ref="F94">IF(A94="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E94))&amp;OdstranitDiakritiku(LOWER(D94)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F95" t="str" cm="1">
-        <f t="array" ref="F95">IF(A95="","Nejsou hodnoty",RemoveDiacritics((LOWER(E95))&amp;RemoveDiacritics(LOWER(D95))))</f>
+        <f t="array" ref="F95">IF(A95="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E95))&amp;OdstranitDiakritiku(LOWER(D95)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F96" t="str" cm="1">
-        <f t="array" ref="F96">IF(A96="","Nejsou hodnoty",RemoveDiacritics((LOWER(E96))&amp;RemoveDiacritics(LOWER(D96))))</f>
+        <f t="array" ref="F96">IF(A96="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E96))&amp;OdstranitDiakritiku(LOWER(D96)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F97" t="str" cm="1">
-        <f t="array" ref="F97">IF(A97="","Nejsou hodnoty",RemoveDiacritics((LOWER(E97))&amp;RemoveDiacritics(LOWER(D97))))</f>
+        <f t="array" ref="F97">IF(A97="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E97))&amp;OdstranitDiakritiku(LOWER(D97)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F98" t="str" cm="1">
-        <f t="array" ref="F98">IF(A98="","Nejsou hodnoty",RemoveDiacritics((LOWER(E98))&amp;RemoveDiacritics(LOWER(D98))))</f>
+        <f t="array" ref="F98">IF(A98="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E98))&amp;OdstranitDiakritiku(LOWER(D98)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F99" t="str" cm="1">
-        <f t="array" ref="F99">IF(A99="","Nejsou hodnoty",RemoveDiacritics((LOWER(E99))&amp;RemoveDiacritics(LOWER(D99))))</f>
+        <f t="array" ref="F99">IF(A99="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E99))&amp;OdstranitDiakritiku(LOWER(D99)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2428,7 +2428,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F100" t="str" cm="1">
-        <f t="array" ref="F100">IF(A100="","Nejsou hodnoty",RemoveDiacritics((LOWER(E100))&amp;RemoveDiacritics(LOWER(D100))))</f>
+        <f t="array" ref="F100">IF(A100="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E100))&amp;OdstranitDiakritiku(LOWER(D100)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F101" t="str" cm="1">
-        <f t="array" ref="F101">IF(A101="","Nejsou hodnoty",RemoveDiacritics((LOWER(E101))&amp;RemoveDiacritics(LOWER(D101))))</f>
+        <f t="array" ref="F101">IF(A101="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E101))&amp;OdstranitDiakritiku(LOWER(D101)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F102" t="str" cm="1">
-        <f t="array" ref="F102">IF(A102="","Nejsou hodnoty",RemoveDiacritics((LOWER(E102))&amp;RemoveDiacritics(LOWER(D102))))</f>
+        <f t="array" ref="F102">IF(A102="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E102))&amp;OdstranitDiakritiku(LOWER(D102)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F103" t="str" cm="1">
-        <f t="array" ref="F103">IF(A103="","Nejsou hodnoty",RemoveDiacritics((LOWER(E103))&amp;RemoveDiacritics(LOWER(D103))))</f>
+        <f t="array" ref="F103">IF(A103="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E103))&amp;OdstranitDiakritiku(LOWER(D103)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F104" t="str" cm="1">
-        <f t="array" ref="F104">IF(A104="","Nejsou hodnoty",RemoveDiacritics((LOWER(E104))&amp;RemoveDiacritics(LOWER(D104))))</f>
+        <f t="array" ref="F104">IF(A104="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E104))&amp;OdstranitDiakritiku(LOWER(D104)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F105" t="str" cm="1">
-        <f t="array" ref="F105">IF(A105="","Nejsou hodnoty",RemoveDiacritics((LOWER(E105))&amp;RemoveDiacritics(LOWER(D105))))</f>
+        <f t="array" ref="F105">IF(A105="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E105))&amp;OdstranitDiakritiku(LOWER(D105)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F106" t="str" cm="1">
-        <f t="array" ref="F106">IF(A106="","Nejsou hodnoty",RemoveDiacritics((LOWER(E106))&amp;RemoveDiacritics(LOWER(D106))))</f>
+        <f t="array" ref="F106">IF(A106="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E106))&amp;OdstranitDiakritiku(LOWER(D106)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F107" t="str" cm="1">
-        <f t="array" ref="F107">IF(A107="","Nejsou hodnoty",RemoveDiacritics((LOWER(E107))&amp;RemoveDiacritics(LOWER(D107))))</f>
+        <f t="array" ref="F107">IF(A107="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E107))&amp;OdstranitDiakritiku(LOWER(D107)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F108" t="str" cm="1">
-        <f t="array" ref="F108">IF(A108="","Nejsou hodnoty",RemoveDiacritics((LOWER(E108))&amp;RemoveDiacritics(LOWER(D108))))</f>
+        <f t="array" ref="F108">IF(A108="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E108))&amp;OdstranitDiakritiku(LOWER(D108)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F109" t="str" cm="1">
-        <f t="array" ref="F109">IF(A109="","Nejsou hodnoty",RemoveDiacritics((LOWER(E109))&amp;RemoveDiacritics(LOWER(D109))))</f>
+        <f t="array" ref="F109">IF(A109="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E109))&amp;OdstranitDiakritiku(LOWER(D109)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>
@@ -2608,7 +2608,19 @@
         <v>Nejsou hodnoty</v>
       </c>
       <c r="F110" t="str" cm="1">
-        <f t="array" ref="F110">IF(A110="","Nejsou hodnoty",RemoveDiacritics((LOWER(E110))&amp;RemoveDiacritics(LOWER(D110))))</f>
+        <f t="array" ref="F110">IF(A110="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E110))&amp;OdstranitDiakritiku(LOWER(D110)))</f>
+        <v>Nejsou hodnoty</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F111" t="str" cm="1">
+        <f t="array" ref="F111">IF(A111="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E111))&amp;OdstranitDiakritiku(LOWER(D111)))</f>
+        <v>Nejsou hodnoty</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="str" cm="1">
+        <f t="array" ref="F112">IF(A112="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E112))&amp;OdstranitDiakritiku(LOWER(D112)))</f>
         <v>Nejsou hodnoty</v>
       </c>
     </row>

--- a/Excel pro program.xlsx
+++ b/Excel pro program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programování\Chytré nástroje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5070DD1-D8AC-45A5-A1BF-F7D06D4270C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014B64F-7A09-4EE1-BEF9-7CF4AAACEFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B91DDEB3-73B7-415D-A1F4-216134C04092}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>Nikodémová Eliška</t>
   </si>
   <si>
-    <t>NOVÁK Jakub</t>
+    <t>programnovy</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,23 +601,20 @@
         <v>18</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:C3">IFERROR(_xlfn.TEXTSPLIT(A3," "," "),"Nejsou hodnoty")</f>
-        <v>NOVÁK</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Jakub</v>
+        <f t="array" ref="B3">IFERROR(_xlfn.TEXTSPLIT(A3," "," "),"Nejsou hodnoty")</f>
+        <v>programnovy</v>
       </c>
       <c r="D3" t="str">
         <f>IF(C3="","Nejsou hodnoty", C3)</f>
-        <v>Jakub</v>
+        <v>Nejsou hodnoty</v>
       </c>
       <c r="E3" t="str">
         <f>IF(B3="Nejsou hodnoty", B3, PROPER(B3))</f>
-        <v>Novák</v>
-      </c>
-      <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">IF(A4="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E3))&amp;OdstranitDiakritiku(LOWER(D3)))</f>
-        <v>novakjakub</v>
+        <v>Programnovy</v>
+      </c>
+      <c r="F3" t="e" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">IF(A4="","Nejsou hodnoty",(LOWER(E3))&amp;OdstranitDiakritiku(LOWER(D3)))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel pro program.xlsx
+++ b/Excel pro program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programování\Chytré nástroje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014B64F-7A09-4EE1-BEF9-7CF4AAACEFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5070DD1-D8AC-45A5-A1BF-F7D06D4270C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B91DDEB3-73B7-415D-A1F4-216134C04092}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>Nikodémová Eliška</t>
   </si>
   <si>
-    <t>programnovy</t>
+    <t>NOVÁK Jakub</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,20 +601,23 @@
         <v>18</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3">IFERROR(_xlfn.TEXTSPLIT(A3," "," "),"Nejsou hodnoty")</f>
-        <v>programnovy</v>
+        <f t="array" ref="B3:C3">IFERROR(_xlfn.TEXTSPLIT(A3," "," "),"Nejsou hodnoty")</f>
+        <v>NOVÁK</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Jakub</v>
       </c>
       <c r="D3" t="str">
         <f>IF(C3="","Nejsou hodnoty", C3)</f>
-        <v>Nejsou hodnoty</v>
+        <v>Jakub</v>
       </c>
       <c r="E3" t="str">
         <f>IF(B3="Nejsou hodnoty", B3, PROPER(B3))</f>
-        <v>Programnovy</v>
-      </c>
-      <c r="F3" t="e" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">IF(A4="","Nejsou hodnoty",(LOWER(E3))&amp;OdstranitDiakritiku(LOWER(D3)))</f>
-        <v>#NAME?</v>
+        <v>Novák</v>
+      </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3">IF(A4="","Nejsou hodnoty",OdstranitDiakritiku(LOWER(E3))&amp;OdstranitDiakritiku(LOWER(D3)))</f>
+        <v>novakjakub</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
